--- a/parsing/template.xlsx
+++ b/parsing/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d_tru\Downloads\git\project_for_TSUM\project_for_TSUM\parsing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C427D6-42E5-43A1-8110-009AB7FB2BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEE0733-4052-495E-A848-B0277664AD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>tg_channels</t>
   </si>
   <si>
     <t>insta_channels</t>
+  </si>
+  <si>
+    <t>rogov24</t>
+  </si>
+  <si>
+    <t>gucci</t>
   </si>
 </sst>
 </file>
@@ -348,11 +354,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -368,6 +372,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/parsing/template.xlsx
+++ b/parsing/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d_tru\Downloads\git\project_for_TSUM\project_for_TSUM\parsing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEE0733-4052-495E-A848-B0277664AD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE75D6E-7EF3-4F97-9525-92824F70FBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>tg_channels</t>
   </si>
@@ -36,7 +36,13 @@
     <t>rogov24</t>
   </si>
   <si>
-    <t>gucci</t>
+    <t>mariannaeliseeva</t>
+  </si>
+  <si>
+    <t>voguemr</t>
+  </si>
+  <si>
+    <t>OVECHKIN_NIKOLAY</t>
   </si>
 </sst>
 </file>
@@ -354,9 +360,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -376,8 +384,20 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/parsing/template.xlsx
+++ b/parsing/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d_tru\Downloads\git\project_for_TSUM\project_for_TSUM\parsing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE75D6E-7EF3-4F97-9525-92824F70FBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BD7F0C-42C3-48E4-8BA6-9E4C5ADFB300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>tg_channels</t>
   </si>
   <si>
     <t>insta_channels</t>
-  </si>
-  <si>
-    <t>rogov24</t>
   </si>
   <si>
     <t>mariannaeliseeva</t>
@@ -360,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -395,11 +392,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
